--- a/recruited_voters.xlsx
+++ b/recruited_voters.xlsx
@@ -9,28 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9480"/>
   </bookViews>
   <sheets>
-    <sheet name="recruited_voters" sheetId="1" r:id="rId1"/>
+    <sheet name="Recruited Voters" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
-  <si>
-    <t>level</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>recruitor_id</t>
   </si>
   <si>
-    <t>identifier</t>
-  </si>
-  <si>
-    <t>id</t>
+    <t>affiliate_level</t>
   </si>
   <si>
     <t>recruitment_date</t>
@@ -60,25 +54,54 @@
     <t>pollingStation</t>
   </si>
   <si>
+    <t>county</t>
+  </si>
+  <si>
     <t>ward_autofill</t>
   </si>
   <si>
     <t>constituenceyAutofill</t>
   </si>
   <si>
-    <t>county_autofill</t>
+    <t>A-A-1</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>37834049</t>
+  </si>
+  <si>
+    <t>Vin Murithi</t>
   </si>
   <si>
     <t>male</t>
+  </si>
+  <si>
+    <t>0796710431</t>
+  </si>
+  <si>
+    <t>murithivin@mail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAUA STADIUM  </t>
+  </si>
+  <si>
+    <t>Meru</t>
+  </si>
+  <si>
+    <t>MAUA</t>
+  </si>
+  <si>
+    <t>IGEMBE SOUTH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -129,13 +152,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,15 +460,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,63 +515,49 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>4510</v>
-      </c>
-      <c r="E2" s="2">
-        <v>44760</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="C2" s="2">
+        <v>44763</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2">
-        <v>36572</v>
-      </c>
-      <c r="J2">
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2">
+        <v>44763</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>4511</v>
-      </c>
-      <c r="E3" s="3">
-        <v>44760</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="3">
-        <v>36572</v>
-      </c>
-      <c r="J3">
-        <v>22</v>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/recruited_voters.xlsx
+++ b/recruited_voters.xlsx
@@ -9,24 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9465"/>
   </bookViews>
   <sheets>
     <sheet name="Recruited Voters" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="68">
+  <si>
+    <t>affiliate_level</t>
+  </si>
   <si>
     <t>recruitor_id</t>
   </si>
   <si>
-    <t>affiliate_level</t>
-  </si>
-  <si>
     <t>recruitment_date</t>
   </si>
   <si>
@@ -51,57 +51,188 @@
     <t>email</t>
   </si>
   <si>
+    <t>county</t>
+  </si>
+  <si>
+    <t>constituencey_autofill</t>
+  </si>
+  <si>
+    <t>ward_autofill</t>
+  </si>
+  <si>
     <t>pollingStation</t>
   </si>
   <si>
-    <t>county</t>
-  </si>
-  <si>
-    <t>ward_autofill</t>
-  </si>
-  <si>
-    <t>constituenceyAutofill</t>
-  </si>
-  <si>
-    <t>A-A-1</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>37834049</t>
-  </si>
-  <si>
-    <t>Vin Murithi</t>
+    <t>harvery doe</t>
   </si>
   <si>
     <t>male</t>
   </si>
   <si>
-    <t>0796710431</t>
+    <t>harverydoe@mail.com</t>
+  </si>
+  <si>
+    <t>MERU</t>
+  </si>
+  <si>
+    <t>IGEMBE SOUTH</t>
+  </si>
+  <si>
+    <t>MAUA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAUA STADIUM  </t>
+  </si>
+  <si>
+    <t>murithi vin</t>
   </si>
   <si>
     <t>murithivin@mail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">MAUA STADIUM  </t>
-  </si>
-  <si>
-    <t>Meru</t>
-  </si>
-  <si>
-    <t>MAUA</t>
-  </si>
-  <si>
-    <t>IGEMBE SOUTH</t>
+    <t>joanna kairi</t>
+  </si>
+  <si>
+    <t>joanakairi@mail.com</t>
+  </si>
+  <si>
+    <t>vivian jo</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>vivianjo@mail.com</t>
+  </si>
+  <si>
+    <t>hailey smith</t>
+  </si>
+  <si>
+    <t>haileysmith@mail.com</t>
+  </si>
+  <si>
+    <t>stan smith</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>002001</t>
+  </si>
+  <si>
+    <t>21212121</t>
+  </si>
+  <si>
+    <t>steve smith</t>
+  </si>
+  <si>
+    <t>0792397462</t>
+  </si>
+  <si>
+    <t>stevesmith@mail.com</t>
+  </si>
+  <si>
+    <t>21212122</t>
+  </si>
+  <si>
+    <t>21212123</t>
+  </si>
+  <si>
+    <t>21212124</t>
+  </si>
+  <si>
+    <t>21212125</t>
+  </si>
+  <si>
+    <t>21212126</t>
+  </si>
+  <si>
+    <t>21212127</t>
+  </si>
+  <si>
+    <t>21212128</t>
+  </si>
+  <si>
+    <t>0792397463</t>
+  </si>
+  <si>
+    <t>0792397464</t>
+  </si>
+  <si>
+    <t>0792397465</t>
+  </si>
+  <si>
+    <t>0792397466</t>
+  </si>
+  <si>
+    <t>0792397467</t>
+  </si>
+  <si>
+    <t>0792397468</t>
+  </si>
+  <si>
+    <t>0792397469</t>
+  </si>
+  <si>
+    <t>002002</t>
+  </si>
+  <si>
+    <t>002003</t>
+  </si>
+  <si>
+    <t>002004</t>
+  </si>
+  <si>
+    <t>002005</t>
+  </si>
+  <si>
+    <t>002006</t>
+  </si>
+  <si>
+    <t>002007</t>
+  </si>
+  <si>
+    <t>002008</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>gucci mane</t>
+  </si>
+  <si>
+    <t>homer simpson</t>
+  </si>
+  <si>
+    <t>bart simpson</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -125,7 +256,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -148,16 +279,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,16 +604,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -517,50 +660,769 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <f ca="1">RANDBETWEEN(DATE(2022,6,15),DATE(2022,7,24))</f>
+        <v>44766</v>
+      </c>
+      <c r="D2">
+        <v>21212121</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2">
-        <v>44763</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="G2" s="2">
+        <v>35600</v>
+      </c>
+      <c r="H2">
+        <v>21</v>
+      </c>
+      <c r="I2">
+        <v>792397462</v>
+      </c>
+      <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2">
-        <v>44763</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
       <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <f ca="1">RANDBETWEEN(DATE(2022,6,29),DATE(2022,7,15))</f>
+        <v>44756</v>
+      </c>
+      <c r="D3">
+        <v>21212121</v>
+      </c>
+      <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="L2" t="s">
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2">
+        <v>35600</v>
+      </c>
+      <c r="H3">
+        <v>35</v>
+      </c>
+      <c r="I3">
+        <v>792397462</v>
+      </c>
+      <c r="J3" t="s">
         <v>22</v>
       </c>
-      <c r="M2" t="s">
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <f ca="1">RANDBETWEEN(DATE(2022,6,16),DATE(2022,7,22))</f>
+        <v>44729</v>
+      </c>
+      <c r="D4">
+        <v>21212121</v>
+      </c>
+      <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="N2" t="s">
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2">
+        <v>35600</v>
+      </c>
+      <c r="H4">
+        <v>36</v>
+      </c>
+      <c r="I4">
+        <v>792397462</v>
+      </c>
+      <c r="J4" t="s">
         <v>24</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" ref="C5:C15" ca="1" si="0">RANDBETWEEN(DATE(2022,6,29),DATE(2022,7,24))</f>
+        <v>44755</v>
+      </c>
+      <c r="D5">
+        <v>21212121</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2">
+        <v>35600</v>
+      </c>
+      <c r="H5">
+        <v>24</v>
+      </c>
+      <c r="I5">
+        <v>792397462</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>2001</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44766</v>
+      </c>
+      <c r="D6">
+        <v>21212121</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="2">
+        <v>35600</v>
+      </c>
+      <c r="H6">
+        <v>45</v>
+      </c>
+      <c r="I6">
+        <v>792397462</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>2001</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44757</v>
+      </c>
+      <c r="D7">
+        <v>21212121</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="2">
+        <v>35600</v>
+      </c>
+      <c r="H7">
+        <v>41</v>
+      </c>
+      <c r="I7">
+        <v>792397462</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44749</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="3">
+        <v>35052</v>
+      </c>
+      <c r="H8">
+        <v>56</v>
+      </c>
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44753</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="3">
+        <v>35053</v>
+      </c>
+      <c r="H9">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44765</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="3">
+        <v>35054</v>
+      </c>
+      <c r="H10">
+        <v>35</v>
+      </c>
+      <c r="I10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44761</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="3">
+        <v>35055</v>
+      </c>
+      <c r="H11">
+        <v>36</v>
+      </c>
+      <c r="I11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44759</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="3">
+        <v>35056</v>
+      </c>
+      <c r="H12">
+        <v>27</v>
+      </c>
+      <c r="I12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44751</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="3">
+        <v>35057</v>
+      </c>
+      <c r="H13">
+        <v>45</v>
+      </c>
+      <c r="I13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44752</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="3">
+        <v>35058</v>
+      </c>
+      <c r="H14">
+        <v>68</v>
+      </c>
+      <c r="I14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44744</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="3">
+        <v>35059</v>
+      </c>
+      <c r="H15">
+        <v>56</v>
+      </c>
+      <c r="I15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="4">
+        <v>44750</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="3">
+        <v>35057</v>
+      </c>
+      <c r="H16">
+        <v>26</v>
+      </c>
+      <c r="I16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" t="s">
+        <v>19</v>
+      </c>
+      <c r="N16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="4">
+        <v>44751</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="3">
+        <v>35058</v>
+      </c>
+      <c r="H17">
+        <v>66</v>
+      </c>
+      <c r="I17" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="4">
+        <v>44758</v>
+      </c>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="3">
+        <v>35059</v>
+      </c>
+      <c r="H18">
+        <v>26</v>
+      </c>
+      <c r="I18" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>